--- a/data/trans_bre/P44D-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P44D-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>15.17135680649152</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.6930140963800374</v>
+        <v>-0.693014096380043</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.1324144087933775</v>
@@ -627,7 +627,7 @@
         <v>0.4503027538775775</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>-0.03079139413311835</v>
+        <v>-0.03079139413311859</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-33.58943623337488</v>
+        <v>-36.79752620961236</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-26.32590337609781</v>
+        <v>-24.67452846985161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-10.64062888634409</v>
+        <v>-9.809255888834736</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.6633906209219098</v>
+        <v>-0.6897984426298459</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5921090899436977</v>
+        <v>-0.5414981216336084</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3936413687423881</v>
+        <v>-0.3705060504725816</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>41.42359190086671</v>
+        <v>43.48615162657033</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>53.12016627126441</v>
+        <v>53.93790190909803</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.306723303712255</v>
+        <v>9.06526946500933</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2.238130059183733</v>
+        <v>2.703860087427493</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.405961973517031</v>
+        <v>2.74102027322296</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4597665691591585</v>
+        <v>0.5055778965488973</v>
       </c>
     </row>
     <row r="7">
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-43.76176075761292</v>
+        <v>-45.95504775255845</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-40.35593917369391</v>
+        <v>-40.39703719266463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.94849273709567</v>
+        <v>-13.98450149294179</v>
       </c>
       <c r="F8" s="6" t="n">
         <v>-1</v>
@@ -735,7 +735,7 @@
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6082526617623352</v>
+        <v>-0.6294950403765771</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>52.84403337636058</v>
+        <v>54.76342077112398</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>55.52709654803699</v>
+        <v>54.25289523582362</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.666182166020331</v>
+        <v>6.613669478068982</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.182730963778691</v>
+        <v>3.221883692604418</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.044260239470468</v>
+        <v>3.034699399832966</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6172446136468352</v>
+        <v>0.5577967840710272</v>
       </c>
     </row>
     <row r="10">
@@ -802,18 +802,18 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.650630855748199</v>
+        <v>3.663477259538497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-25.69391518594272</v>
+        <v>-25.02690239292374</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.674133478694592</v>
+        <v>-7.170964705260578</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>-1</v>
+        <v>-0.9113322330861983</v>
       </c>
     </row>
     <row r="12">
@@ -824,18 +824,18 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>70.51326828610567</v>
+        <v>68.2569211824607</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-3.040126542004325</v>
+        <v>-2.951333339312987</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.937962680302239</v>
+        <v>8.299267714442822</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>2.761712533878335</v>
+        <v>3.140985653408929</v>
       </c>
     </row>
     <row r="13">
@@ -875,15 +875,15 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>-6.603425498845497</v>
+        <v>-6.707696718531109</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.6986468159913111</v>
+        <v>-0.7382764755381173</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.6079617569045727</v>
+        <v>-0.4835480679951953</v>
       </c>
     </row>
     <row r="15">
@@ -895,15 +895,15 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>19.43019122993698</v>
+        <v>20.11561957707824</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.874303425619622</v>
+        <v>6.981419724587886</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>10.5572662418846</v>
+        <v>11.13288977333402</v>
       </c>
     </row>
     <row r="16">
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3285265965254293</v>
+        <v>0.3285265965254292</v>
       </c>
       <c r="F16" s="6" t="inlineStr">
         <is>
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>33.52132521850286</v>
+        <v>34.2589753161181</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>1.66579441504744</v>
+        <v>1.876612008680758</v>
       </c>
       <c r="F18" s="6" t="inlineStr"/>
       <c r="G18" s="6" t="inlineStr"/>
@@ -988,7 +988,7 @@
       <c r="C19" s="5" t="inlineStr"/>
       <c r="D19" s="5" t="inlineStr"/>
       <c r="E19" s="5" t="n">
-        <v>4.122159845207433</v>
+        <v>4.122159845207434</v>
       </c>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr"/>
@@ -1008,7 +1008,7 @@
       <c r="C20" s="5" t="inlineStr"/>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>2.02995198480078</v>
+        <v>2.049170156788095</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
@@ -1024,7 +1024,7 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>7.192042657249305</v>
+        <v>7.357690479513493</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.904996850121991</v>
+        <v>-6.840052616523209</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.11757236443742</v>
+        <v>-10.15413795683002</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.294085124545241</v>
+        <v>-5.794061691405833</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.4061421159285759</v>
+        <v>-0.4000925295641335</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.6194347219746511</v>
+        <v>-0.5960842039719049</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4589614599404001</v>
+        <v>-0.4837224151020986</v>
       </c>
     </row>
     <row r="24">
@@ -1094,22 +1094,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.13919406268307</v>
+        <v>15.03505374519508</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.738705200822265</v>
+        <v>6.41311944827019</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3590841798952552</v>
+        <v>0.06777377523915026</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>2.1959008575316</v>
+        <v>1.855360647762651</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5569683999483008</v>
+        <v>0.5886622784269228</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04461974539392792</v>
+        <v>0.02413695461970239</v>
       </c>
     </row>
     <row r="25">
